--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Cthrc1</t>
+  </si>
+  <si>
+    <t>Fzd3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cthrc1</t>
-  </si>
-  <si>
-    <t>Fzd3</t>
   </si>
 </sst>
 </file>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H2">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I2">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J2">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.173174</v>
+        <v>0.3643233333333333</v>
       </c>
       <c r="N2">
-        <v>0.519522</v>
+        <v>1.09297</v>
       </c>
       <c r="O2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="P2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="Q2">
-        <v>0.06464325658999999</v>
+        <v>0.4262552639722222</v>
       </c>
       <c r="R2">
-        <v>0.5817893093099999</v>
+        <v>3.836297375750001</v>
       </c>
       <c r="S2">
-        <v>0.0001538510089036454</v>
+        <v>0.000924283476615728</v>
       </c>
       <c r="T2">
-        <v>0.0001538510089036454</v>
+        <v>0.0009242834766157279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H3">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I3">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J3">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.642808</v>
       </c>
       <c r="O3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="P3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="Q3">
-        <v>0.3288401947599999</v>
+        <v>1.030687778866667</v>
       </c>
       <c r="R3">
-        <v>2.95956175284</v>
+        <v>9.276190009800001</v>
       </c>
       <c r="S3">
-        <v>0.0007826399596910721</v>
+        <v>0.002234922977087989</v>
       </c>
       <c r="T3">
-        <v>0.0007826399596910722</v>
+        <v>0.002234922977087989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H4">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I4">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J4">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,43 +679,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.606500333333333</v>
+        <v>2.721212</v>
       </c>
       <c r="N4">
-        <v>7.819501</v>
+        <v>8.163636</v>
       </c>
       <c r="O4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="P4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="Q4">
-        <v>0.9729674769283332</v>
+        <v>3.183795363233334</v>
       </c>
       <c r="R4">
-        <v>8.756707292354998</v>
+        <v>28.65415826910001</v>
       </c>
       <c r="S4">
-        <v>0.002315663471369959</v>
+        <v>0.006903678841967589</v>
       </c>
       <c r="T4">
-        <v>0.002315663471369959</v>
+        <v>0.006903678841967588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>113.5508423333333</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H5">
-        <v>340.652527</v>
+        <v>3.509975</v>
       </c>
       <c r="I5">
-        <v>0.9892839949531296</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J5">
-        <v>0.9892839949531296</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.173174</v>
+        <v>0.016887</v>
       </c>
       <c r="N5">
-        <v>0.519522</v>
+        <v>0.050661</v>
       </c>
       <c r="O5">
-        <v>0.0473074116693291</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="P5">
-        <v>0.0473074116693291</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="Q5">
-        <v>19.66405357023267</v>
+        <v>0.019757649275</v>
       </c>
       <c r="R5">
-        <v>176.976482132094</v>
+        <v>0.177818843475</v>
       </c>
       <c r="S5">
-        <v>0.04680046520712619</v>
+        <v>4.28420955825223E-05</v>
       </c>
       <c r="T5">
-        <v>0.04680046520712619</v>
+        <v>4.284209558252229E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>340.652527</v>
       </c>
       <c r="I6">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J6">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8809360000000001</v>
+        <v>0.3643233333333333</v>
       </c>
       <c r="N6">
-        <v>2.642808</v>
+        <v>1.09297</v>
       </c>
       <c r="O6">
-        <v>0.2406527654632456</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="P6">
-        <v>0.2406527654632456</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="Q6">
-        <v>100.0310248417573</v>
+        <v>41.36922138168777</v>
       </c>
       <c r="R6">
-        <v>900.2792235758159</v>
+        <v>372.32299243519</v>
       </c>
       <c r="S6">
-        <v>0.2380739292139981</v>
+        <v>0.08970420073461864</v>
       </c>
       <c r="T6">
-        <v>0.2380739292139982</v>
+        <v>0.08970420073461864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>340.652527</v>
       </c>
       <c r="I7">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J7">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.606500333333333</v>
+        <v>0.8809360000000001</v>
       </c>
       <c r="N7">
-        <v>7.819501</v>
+        <v>2.642808</v>
       </c>
       <c r="O7">
-        <v>0.7120398228674253</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="P7">
-        <v>0.7120398228674253</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="Q7">
-        <v>295.9703083921141</v>
+        <v>100.0310248417573</v>
       </c>
       <c r="R7">
-        <v>2663.732775529027</v>
+        <v>900.2792235758159</v>
       </c>
       <c r="S7">
-        <v>0.7044096005320052</v>
+        <v>0.2169052941389572</v>
       </c>
       <c r="T7">
-        <v>0.7044096005320052</v>
+        <v>0.2169052941389572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8011793333333334</v>
+        <v>113.5508423333333</v>
       </c>
       <c r="H8">
-        <v>2.403538</v>
+        <v>340.652527</v>
       </c>
       <c r="I8">
-        <v>0.00698007936592132</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J8">
-        <v>0.00698007936592132</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.173174</v>
+        <v>2.721212</v>
       </c>
       <c r="N8">
-        <v>0.519522</v>
+        <v>8.163636</v>
       </c>
       <c r="O8">
-        <v>0.0473074116693291</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="P8">
-        <v>0.0473074116693291</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="Q8">
-        <v>0.1387434298706667</v>
+        <v>308.9959147675746</v>
       </c>
       <c r="R8">
-        <v>1.248690868836</v>
+        <v>2780.963232908172</v>
       </c>
       <c r="S8">
-        <v>0.0003302094880482295</v>
+        <v>0.6700206249653323</v>
       </c>
       <c r="T8">
-        <v>0.0003302094880482295</v>
+        <v>0.6700206249653322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8011793333333334</v>
+        <v>113.5508423333333</v>
       </c>
       <c r="H9">
-        <v>2.403538</v>
+        <v>340.652527</v>
       </c>
       <c r="I9">
-        <v>0.00698007936592132</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J9">
-        <v>0.00698007936592132</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.8809360000000001</v>
+        <v>0.016887</v>
       </c>
       <c r="N9">
-        <v>2.642808</v>
+        <v>0.050661</v>
       </c>
       <c r="O9">
-        <v>0.2406527654632456</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="P9">
-        <v>0.2406527654632456</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="Q9">
-        <v>0.7057877171893334</v>
+        <v>1.917533074483</v>
       </c>
       <c r="R9">
-        <v>6.352089454704001</v>
+        <v>17.257797670347</v>
       </c>
       <c r="S9">
-        <v>0.001679775402561904</v>
+        <v>0.004157940760877714</v>
       </c>
       <c r="T9">
-        <v>0.001679775402561904</v>
+        <v>0.004157940760877713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8011793333333334</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H10">
-        <v>2.403538</v>
+        <v>3.162818</v>
       </c>
       <c r="I10">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J10">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,122 +1051,122 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.606500333333333</v>
+        <v>0.3643233333333333</v>
       </c>
       <c r="N10">
-        <v>7.819501</v>
+        <v>1.09297</v>
       </c>
       <c r="O10">
-        <v>0.7120398228674253</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="P10">
-        <v>0.7120398228674253</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="Q10">
-        <v>2.088274199393111</v>
+        <v>0.3840961321622222</v>
       </c>
       <c r="R10">
-        <v>18.794467794538</v>
+        <v>3.45686518946</v>
       </c>
       <c r="S10">
-        <v>0.004970094475311188</v>
+        <v>0.0008328664497447427</v>
       </c>
       <c r="T10">
-        <v>0.004970094475311188</v>
+        <v>0.0008328664497447425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05552766666666666</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H11">
-        <v>0.166583</v>
+        <v>3.162818</v>
       </c>
       <c r="I11">
-        <v>0.0004837712409844451</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J11">
-        <v>0.000483771240984445</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.173174</v>
+        <v>0.8809360000000001</v>
       </c>
       <c r="N11">
-        <v>0.519522</v>
+        <v>2.642808</v>
       </c>
       <c r="O11">
-        <v>0.0473074116693291</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="P11">
-        <v>0.0473074116693291</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="Q11">
-        <v>0.009615948147333334</v>
+        <v>0.9287467458826667</v>
       </c>
       <c r="R11">
-        <v>0.086543533326</v>
+        <v>8.358720712943999</v>
       </c>
       <c r="S11">
-        <v>2.288596525103336E-05</v>
+        <v>0.002013876059102266</v>
       </c>
       <c r="T11">
-        <v>2.288596525103336E-05</v>
+        <v>0.002013876059102266</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05552766666666666</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H12">
-        <v>0.166583</v>
+        <v>3.162818</v>
       </c>
       <c r="I12">
-        <v>0.0004837712409844451</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J12">
-        <v>0.000483771240984445</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,90 +1175,90 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8809360000000001</v>
+        <v>2.721212</v>
       </c>
       <c r="N12">
-        <v>2.642808</v>
+        <v>8.163636</v>
       </c>
       <c r="O12">
-        <v>0.2406527654632456</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="P12">
-        <v>0.2406527654632456</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="Q12">
-        <v>0.04891632056266667</v>
+        <v>2.868899431805333</v>
       </c>
       <c r="R12">
-        <v>0.4402468850639999</v>
+        <v>25.820094886248</v>
       </c>
       <c r="S12">
-        <v>0.0001164208869944929</v>
+        <v>0.006220864737667431</v>
       </c>
       <c r="T12">
-        <v>0.0001164208869944929</v>
+        <v>0.00622086473766743</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.054272666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.162818</v>
+      </c>
+      <c r="I13">
+        <v>0.009106212008960361</v>
+      </c>
+      <c r="J13">
+        <v>0.009106212008960359</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.166583</v>
-      </c>
-      <c r="I13">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J13">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>2.606500333333333</v>
+        <v>0.016887</v>
       </c>
       <c r="N13">
-        <v>7.819501</v>
+        <v>0.050661</v>
       </c>
       <c r="O13">
-        <v>0.7120398228674253</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="P13">
-        <v>0.7120398228674253</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="Q13">
-        <v>0.1447328816758889</v>
+        <v>0.017803502522</v>
       </c>
       <c r="R13">
-        <v>1.302595935083</v>
+        <v>0.160231522698</v>
       </c>
       <c r="S13">
-        <v>0.0003444643887389188</v>
+        <v>3.860476244592111E-05</v>
       </c>
       <c r="T13">
-        <v>0.0003444643887389188</v>
+        <v>3.860476244592111E-05</v>
       </c>
     </row>
   </sheetData>
